--- a/data/pca/factorExposure/factorExposure_2009-10-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008473312585033805</v>
+        <v>0.01652211092432154</v>
       </c>
       <c r="C2">
-        <v>-0.001647663745695004</v>
+        <v>0.0009253393924909469</v>
       </c>
       <c r="D2">
-        <v>0.008016434523923654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008730731310708097</v>
+      </c>
+      <c r="E2">
+        <v>0.001331154818950455</v>
+      </c>
+      <c r="F2">
+        <v>-0.01243238040486244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1094766128207127</v>
+        <v>0.09356493345381765</v>
       </c>
       <c r="C4">
-        <v>-0.001741185251446762</v>
+        <v>0.01466155691148705</v>
       </c>
       <c r="D4">
-        <v>0.04974156047370076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08510564500054947</v>
+      </c>
+      <c r="E4">
+        <v>0.02865642619052031</v>
+      </c>
+      <c r="F4">
+        <v>0.03212810654610024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1384517542745974</v>
+        <v>0.1591390555085811</v>
       </c>
       <c r="C6">
-        <v>-0.005906609493464874</v>
+        <v>0.02600398043012122</v>
       </c>
       <c r="D6">
-        <v>-0.02946176974867739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02249408932700942</v>
+      </c>
+      <c r="E6">
+        <v>0.01169366384640589</v>
+      </c>
+      <c r="F6">
+        <v>0.04547609190242429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07593064515266087</v>
+        <v>0.0631924919934463</v>
       </c>
       <c r="C7">
-        <v>0.01089678805720382</v>
+        <v>-0.001703576332171347</v>
       </c>
       <c r="D7">
-        <v>0.03066409498251399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05282566145288821</v>
+      </c>
+      <c r="E7">
+        <v>0.009193056661644954</v>
+      </c>
+      <c r="F7">
+        <v>0.04740149240288046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06806440794558112</v>
+        <v>0.05724656578717131</v>
       </c>
       <c r="C8">
-        <v>0.02040516461738971</v>
+        <v>-0.01355090878018989</v>
       </c>
       <c r="D8">
-        <v>-0.00756984646780538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03314184750704835</v>
+      </c>
+      <c r="E8">
+        <v>0.01739152990941903</v>
+      </c>
+      <c r="F8">
+        <v>-0.02729570152435354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09027271890820114</v>
+        <v>0.07077471219540578</v>
       </c>
       <c r="C9">
-        <v>-0.002038590900686787</v>
+        <v>0.01027800800943285</v>
       </c>
       <c r="D9">
-        <v>0.04833829038081564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08706846035156841</v>
+      </c>
+      <c r="E9">
+        <v>0.02271768258604273</v>
+      </c>
+      <c r="F9">
+        <v>0.04767295431348765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05528681564635504</v>
+        <v>0.09323112538130288</v>
       </c>
       <c r="C10">
-        <v>-0.001903094569479314</v>
+        <v>0.02098938872770021</v>
       </c>
       <c r="D10">
-        <v>-0.137746582404508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1670543486679474</v>
+      </c>
+      <c r="E10">
+        <v>-0.03582462664217585</v>
+      </c>
+      <c r="F10">
+        <v>-0.05403984803842819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0986170581412001</v>
+        <v>0.08763610102830589</v>
       </c>
       <c r="C11">
-        <v>-0.001474613570268702</v>
+        <v>0.01029509321796009</v>
       </c>
       <c r="D11">
-        <v>0.0806684640199421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169630896625247</v>
+      </c>
+      <c r="E11">
+        <v>0.04581153562793504</v>
+      </c>
+      <c r="F11">
+        <v>0.02218842739736933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1063324517402921</v>
+        <v>0.09157617577020329</v>
       </c>
       <c r="C12">
-        <v>0.001161408220773212</v>
+        <v>0.00752371135245097</v>
       </c>
       <c r="D12">
-        <v>0.08106864709108849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1324687456677255</v>
+      </c>
+      <c r="E12">
+        <v>0.04772355776711732</v>
+      </c>
+      <c r="F12">
+        <v>0.02776783751134992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04444235204892713</v>
+        <v>0.04180061766228588</v>
       </c>
       <c r="C13">
-        <v>0.0006307458734771814</v>
+        <v>0.002844772190531638</v>
       </c>
       <c r="D13">
-        <v>0.02913097424539992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05341630480760297</v>
+      </c>
+      <c r="E13">
+        <v>-0.008256424327934627</v>
+      </c>
+      <c r="F13">
+        <v>0.001740991980069522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02008865936547492</v>
+        <v>0.02393952871456231</v>
       </c>
       <c r="C14">
-        <v>-0.01139773357030843</v>
+        <v>0.01394407967471424</v>
       </c>
       <c r="D14">
-        <v>0.02577136688033389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03267483842215797</v>
+      </c>
+      <c r="E14">
+        <v>0.01699937335880439</v>
+      </c>
+      <c r="F14">
+        <v>0.01290436597800646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04201924108923834</v>
+        <v>0.03271379229178433</v>
       </c>
       <c r="C15">
-        <v>-0.001187895514372241</v>
+        <v>0.004530306055639335</v>
       </c>
       <c r="D15">
-        <v>0.01268236933641515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04539255673400368</v>
+      </c>
+      <c r="E15">
+        <v>0.005490786382667672</v>
+      </c>
+      <c r="F15">
+        <v>0.02362095079673099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08751416944239565</v>
+        <v>0.07392364527960109</v>
       </c>
       <c r="C16">
-        <v>0.006051317617558242</v>
+        <v>0.0009268192974550849</v>
       </c>
       <c r="D16">
-        <v>0.07493298650442062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1276732665873603</v>
+      </c>
+      <c r="E16">
+        <v>0.06182705930040608</v>
+      </c>
+      <c r="F16">
+        <v>0.02629595319423718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0003491621622376693</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-6.59699136020477e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006757582026425152</v>
+      </c>
+      <c r="E17">
+        <v>-0.000341116736397314</v>
+      </c>
+      <c r="F17">
+        <v>-0.0003796188184595355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03459416102996014</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00306796596129282</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01620643768116539</v>
+      </c>
+      <c r="E18">
+        <v>-0.007320377468321818</v>
+      </c>
+      <c r="F18">
+        <v>-0.00831580155456196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06579551124207353</v>
+        <v>0.06135912543646673</v>
       </c>
       <c r="C20">
-        <v>0.003268855027436175</v>
+        <v>-0.0001178675111046185</v>
       </c>
       <c r="D20">
-        <v>0.02251718126956475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07751697719458377</v>
+      </c>
+      <c r="E20">
+        <v>0.05574403677214711</v>
+      </c>
+      <c r="F20">
+        <v>0.02396809805177935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03915272403441594</v>
+        <v>0.04043467733953693</v>
       </c>
       <c r="C21">
-        <v>-0.00468971565237726</v>
+        <v>0.006511772731564856</v>
       </c>
       <c r="D21">
-        <v>0.0115028728654682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03750930783882188</v>
+      </c>
+      <c r="E21">
+        <v>-0.005569401695119723</v>
+      </c>
+      <c r="F21">
+        <v>-0.02467655089310724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02372529970467716</v>
+        <v>0.04279517463833576</v>
       </c>
       <c r="C22">
-        <v>0.001237430601361212</v>
+        <v>0.0007235715462676607</v>
       </c>
       <c r="D22">
-        <v>-0.02275458203118293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006636881325353629</v>
+      </c>
+      <c r="E22">
+        <v>0.03268933048921549</v>
+      </c>
+      <c r="F22">
+        <v>-0.04024122171728534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02366545745637706</v>
+        <v>0.04277117518289584</v>
       </c>
       <c r="C23">
-        <v>0.001235869793420417</v>
+        <v>0.000715352667758113</v>
       </c>
       <c r="D23">
-        <v>-0.02275185626139464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006652794468437126</v>
+      </c>
+      <c r="E23">
+        <v>0.03287384963014858</v>
+      </c>
+      <c r="F23">
+        <v>-0.04020489522188565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09445458687663108</v>
+        <v>0.07978904147447793</v>
       </c>
       <c r="C24">
-        <v>0.006859880917826983</v>
+        <v>0.00156414044263976</v>
       </c>
       <c r="D24">
-        <v>0.08511385775632145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1219792403822014</v>
+      </c>
+      <c r="E24">
+        <v>0.04890811307751824</v>
+      </c>
+      <c r="F24">
+        <v>0.02718332057898561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09740207111883711</v>
+        <v>0.08492025454545069</v>
       </c>
       <c r="C25">
-        <v>0.004112136809266633</v>
+        <v>0.004236456123410164</v>
       </c>
       <c r="D25">
-        <v>0.08358451193283063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1096078393300507</v>
+      </c>
+      <c r="E25">
+        <v>0.0320627697995873</v>
+      </c>
+      <c r="F25">
+        <v>0.02694936676975178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05225962131427245</v>
+        <v>0.05785804396003929</v>
       </c>
       <c r="C26">
-        <v>-0.01084009493091371</v>
+        <v>0.01391191563837575</v>
       </c>
       <c r="D26">
-        <v>0.004773345321172668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04118807271448385</v>
+      </c>
+      <c r="E26">
+        <v>0.02762628282351479</v>
+      </c>
+      <c r="F26">
+        <v>-0.006415235518990954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.104752941766854</v>
+        <v>0.1421282162806208</v>
       </c>
       <c r="C28">
-        <v>0.008886160844173695</v>
+        <v>0.02167510650922924</v>
       </c>
       <c r="D28">
-        <v>-0.2565267966625877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.261491514977939</v>
+      </c>
+      <c r="E28">
+        <v>-0.06773236884380808</v>
+      </c>
+      <c r="F28">
+        <v>0.009769712542037094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02393299530230637</v>
+        <v>0.02869356138036609</v>
       </c>
       <c r="C29">
-        <v>-0.006600214614434919</v>
+        <v>0.008813924855716283</v>
       </c>
       <c r="D29">
-        <v>0.01399538961894431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03094648982472685</v>
+      </c>
+      <c r="E29">
+        <v>0.01132280468448017</v>
+      </c>
+      <c r="F29">
+        <v>-0.0132126635206581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09929417431671228</v>
+        <v>0.05973166082134639</v>
       </c>
       <c r="C30">
-        <v>0.009475450406851695</v>
+        <v>0.002804456806635069</v>
       </c>
       <c r="D30">
-        <v>0.05341005901605782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08921737090586515</v>
+      </c>
+      <c r="E30">
+        <v>0.01940663584348905</v>
+      </c>
+      <c r="F30">
+        <v>0.08000349784739003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0352860358973032</v>
+        <v>0.05062987007991605</v>
       </c>
       <c r="C31">
-        <v>-0.01193529102624867</v>
+        <v>0.01523862870743359</v>
       </c>
       <c r="D31">
-        <v>0.01551134803327162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02469108097995625</v>
+      </c>
+      <c r="E31">
+        <v>0.02773039253636678</v>
+      </c>
+      <c r="F31">
+        <v>-0.002646652484457748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04769563534567862</v>
+        <v>0.05079051900830523</v>
       </c>
       <c r="C32">
-        <v>0.006498039958593836</v>
+        <v>-0.001785117966859339</v>
       </c>
       <c r="D32">
-        <v>0.01351779650602981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03501812676110257</v>
+      </c>
+      <c r="E32">
+        <v>0.03213037098941363</v>
+      </c>
+      <c r="F32">
+        <v>0.003567464575199995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1036521629342367</v>
+        <v>0.08944795117028885</v>
       </c>
       <c r="C33">
-        <v>0.003357677641792678</v>
+        <v>0.007081494012457551</v>
       </c>
       <c r="D33">
-        <v>0.05636927767596977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1000932018439499</v>
+      </c>
+      <c r="E33">
+        <v>0.04364290322260114</v>
+      </c>
+      <c r="F33">
+        <v>0.03604502690310422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08672626196311525</v>
+        <v>0.06755949394477102</v>
       </c>
       <c r="C34">
-        <v>-0.001200412900950337</v>
+        <v>0.009961231314113002</v>
       </c>
       <c r="D34">
-        <v>0.07778936551303391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090545526722742</v>
+      </c>
+      <c r="E34">
+        <v>0.03478117438225158</v>
+      </c>
+      <c r="F34">
+        <v>0.03346794322324818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02164583557904237</v>
+        <v>0.02479059632300795</v>
       </c>
       <c r="C35">
-        <v>0.001047237082178248</v>
+        <v>0.002422061184905232</v>
       </c>
       <c r="D35">
-        <v>0.003678144664057944</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01145726139832707</v>
+      </c>
+      <c r="E35">
+        <v>0.01168341390279718</v>
+      </c>
+      <c r="F35">
+        <v>0.0005610894394205569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01412852990464648</v>
+        <v>0.02750426011197919</v>
       </c>
       <c r="C36">
-        <v>-0.008262109857454179</v>
+        <v>0.006768124013690093</v>
       </c>
       <c r="D36">
-        <v>0.02757542030884703</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03963427169290085</v>
+      </c>
+      <c r="E36">
+        <v>0.01619516220729806</v>
+      </c>
+      <c r="F36">
+        <v>0.01549121638272036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001262759600196027</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006017110253437678</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002431679400698724</v>
+      </c>
+      <c r="E37">
+        <v>-0.001790861832952954</v>
+      </c>
+      <c r="F37">
+        <v>0.0008206268947440558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007299153674118397</v>
+        <v>0.0005077682554365682</v>
       </c>
       <c r="C38">
-        <v>2.589971477914259e-05</v>
+        <v>6.80986841582387e-05</v>
       </c>
       <c r="D38">
-        <v>-0.000180523530389407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-2.276480831078702e-05</v>
+      </c>
+      <c r="E38">
+        <v>-0.0002927770392834797</v>
+      </c>
+      <c r="F38">
+        <v>0.0001668293374056058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1340430627546976</v>
+        <v>0.1045404900485626</v>
       </c>
       <c r="C39">
-        <v>-0.001278897793507949</v>
+        <v>0.01539462381437021</v>
       </c>
       <c r="D39">
-        <v>0.1201762696941185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1549465187623009</v>
+      </c>
+      <c r="E39">
+        <v>0.05892569548530577</v>
+      </c>
+      <c r="F39">
+        <v>0.03005020275566577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02889063885103894</v>
+        <v>0.04230150796663242</v>
       </c>
       <c r="C40">
-        <v>-0.005589052314622928</v>
+        <v>0.006768839931608064</v>
       </c>
       <c r="D40">
-        <v>-0.01608259818892755</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03183092245414423</v>
+      </c>
+      <c r="E40">
+        <v>0.002509193069819005</v>
+      </c>
+      <c r="F40">
+        <v>-0.01600359032686411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01912371378722747</v>
+        <v>0.02787711531958656</v>
       </c>
       <c r="C41">
-        <v>-0.005022343963030347</v>
+        <v>0.006818296416516526</v>
       </c>
       <c r="D41">
-        <v>-0.0006723799932843269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01040027756093922</v>
+      </c>
+      <c r="E41">
+        <v>0.01245467615779604</v>
+      </c>
+      <c r="F41">
+        <v>-0.007565945088642998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01779694198333179</v>
+        <v>0.0406908892607489</v>
       </c>
       <c r="C43">
-        <v>-0.007027379479230978</v>
+        <v>0.007023680583070014</v>
       </c>
       <c r="D43">
-        <v>0.01052631132556145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01912579875520851</v>
+      </c>
+      <c r="E43">
+        <v>0.02471670466470294</v>
+      </c>
+      <c r="F43">
+        <v>-0.01439439902531253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.106016066758905</v>
+        <v>0.07997991821306136</v>
       </c>
       <c r="C44">
-        <v>-0.008835724683151244</v>
+        <v>0.01939331222463479</v>
       </c>
       <c r="D44">
-        <v>0.04973652628442111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0979648430029363</v>
+      </c>
+      <c r="E44">
+        <v>0.0626514183989461</v>
+      </c>
+      <c r="F44">
+        <v>0.1561321005313712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004529845888582156</v>
+        <v>0.02364290525872572</v>
       </c>
       <c r="C46">
-        <v>-0.004498533366816023</v>
+        <v>0.003582052510470246</v>
       </c>
       <c r="D46">
-        <v>-0.001811858886663073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01322316021027425</v>
+      </c>
+      <c r="E46">
+        <v>0.02230964159394251</v>
+      </c>
+      <c r="F46">
+        <v>-0.00710575426397925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04295087740848692</v>
+        <v>0.05209497443365275</v>
       </c>
       <c r="C47">
-        <v>0.0006847256098034838</v>
+        <v>0.003301669290428584</v>
       </c>
       <c r="D47">
-        <v>-0.023367060037471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01405620210310105</v>
+      </c>
+      <c r="E47">
+        <v>0.02359231535168553</v>
+      </c>
+      <c r="F47">
+        <v>-0.03310874107668586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05377802670690401</v>
+        <v>0.05002270161887506</v>
       </c>
       <c r="C48">
-        <v>0.003022796277278971</v>
+        <v>0.002150415108926474</v>
       </c>
       <c r="D48">
-        <v>0.02590279915161323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04993043099755668</v>
+      </c>
+      <c r="E48">
+        <v>-0.005845164581059426</v>
+      </c>
+      <c r="F48">
+        <v>0.009222378340585742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2244835780019674</v>
+        <v>0.2006163063408043</v>
       </c>
       <c r="C49">
-        <v>0.01677830624476863</v>
+        <v>0.01883686483485405</v>
       </c>
       <c r="D49">
-        <v>-0.03237010157957059</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006502782590242899</v>
+      </c>
+      <c r="E49">
+        <v>0.03187832808318813</v>
+      </c>
+      <c r="F49">
+        <v>0.03679128142571982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04024960552947272</v>
+        <v>0.0506793503772911</v>
       </c>
       <c r="C50">
-        <v>-0.007247548876016415</v>
+        <v>0.01099909025032359</v>
       </c>
       <c r="D50">
-        <v>0.008681693278395821</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02394693527059612</v>
+      </c>
+      <c r="E50">
+        <v>0.02968680653168213</v>
+      </c>
+      <c r="F50">
+        <v>0.008937014409601063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0002059109973905753</v>
+        <v>8.878386557507052e-05</v>
       </c>
       <c r="C51">
-        <v>1.741945185658502e-05</v>
+        <v>3.394579177393061e-05</v>
       </c>
       <c r="D51">
-        <v>-0.0003929835894632989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001301551763690777</v>
+      </c>
+      <c r="E51">
+        <v>7.143766540321778e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0007650155355978095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.157704847696811</v>
+        <v>0.1467974985464092</v>
       </c>
       <c r="C52">
-        <v>0.008953113940120216</v>
+        <v>0.01631042245158659</v>
       </c>
       <c r="D52">
-        <v>0.03914291968718986</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04339634790606373</v>
+      </c>
+      <c r="E52">
+        <v>0.02002211831234693</v>
+      </c>
+      <c r="F52">
+        <v>0.04166222181777686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1741463733388673</v>
+        <v>0.1712202434480254</v>
       </c>
       <c r="C53">
-        <v>0.01075364857920097</v>
+        <v>0.01920720370126214</v>
       </c>
       <c r="D53">
-        <v>0.0007526309581243934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005627284823846823</v>
+      </c>
+      <c r="E53">
+        <v>0.03100428986651901</v>
+      </c>
+      <c r="F53">
+        <v>0.07175619627101502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02510299970094161</v>
+        <v>0.02155615637121956</v>
       </c>
       <c r="C54">
-        <v>-0.008139229872943443</v>
+        <v>0.01182640751264093</v>
       </c>
       <c r="D54">
-        <v>0.01691769163366726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03422492545937645</v>
+      </c>
+      <c r="E54">
+        <v>0.01744201404340751</v>
+      </c>
+      <c r="F54">
+        <v>-0.004151777800338908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1059641371488407</v>
+        <v>0.1142656878673662</v>
       </c>
       <c r="C55">
-        <v>0.001410881715709741</v>
+        <v>0.01682939749966385</v>
       </c>
       <c r="D55">
-        <v>-0.003916789823198446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008400557843386506</v>
+      </c>
+      <c r="E55">
+        <v>0.02721836845764741</v>
+      </c>
+      <c r="F55">
+        <v>0.04655430187309749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1745849247450799</v>
+        <v>0.1765283656877352</v>
       </c>
       <c r="C56">
-        <v>0.01301980457409709</v>
+        <v>0.01698230741929273</v>
       </c>
       <c r="D56">
-        <v>-0.01615969389020257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007869008529106502</v>
+      </c>
+      <c r="E56">
+        <v>0.0353367523709561</v>
+      </c>
+      <c r="F56">
+        <v>0.04992450268005182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03568023169071984</v>
+        <v>0.04523757855266531</v>
       </c>
       <c r="C58">
-        <v>-0.00200038552483016</v>
+        <v>-0.0004797231079367621</v>
       </c>
       <c r="D58">
-        <v>0.04077904926970653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07106103049851299</v>
+      </c>
+      <c r="E58">
+        <v>0.02824580571919498</v>
+      </c>
+      <c r="F58">
+        <v>-0.03827795353111121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1297428122779883</v>
+        <v>0.1676431234625362</v>
       </c>
       <c r="C59">
-        <v>0.01078772609975623</v>
+        <v>0.021609052588327</v>
       </c>
       <c r="D59">
-        <v>-0.229203236405311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2173376647354252</v>
+      </c>
+      <c r="E59">
+        <v>-0.04658194890731649</v>
+      </c>
+      <c r="F59">
+        <v>-0.03510278006639348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.263397706855992</v>
+        <v>0.2318077120364635</v>
       </c>
       <c r="C60">
-        <v>0.04388470850691522</v>
+        <v>-0.002633560871770268</v>
       </c>
       <c r="D60">
-        <v>0.02782501499377001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04187634113443683</v>
+      </c>
+      <c r="E60">
+        <v>0.0120009093929264</v>
+      </c>
+      <c r="F60">
+        <v>-0.006766080312245876</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1091902115529097</v>
+        <v>0.08070850420276131</v>
       </c>
       <c r="C61">
-        <v>0.001255416320842874</v>
+        <v>0.01130438362450156</v>
       </c>
       <c r="D61">
-        <v>0.07860286140915292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1178467055883933</v>
+      </c>
+      <c r="E61">
+        <v>0.0386405570887182</v>
+      </c>
+      <c r="F61">
+        <v>0.01264405370520011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1693185171095669</v>
+        <v>0.1694258833679314</v>
       </c>
       <c r="C62">
-        <v>0.009079891058832291</v>
+        <v>0.0202219581527901</v>
       </c>
       <c r="D62">
-        <v>-0.009846931590873576</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005949512472392474</v>
+      </c>
+      <c r="E62">
+        <v>0.03384703298607636</v>
+      </c>
+      <c r="F62">
+        <v>0.03352548175530522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04646145935906002</v>
+        <v>0.0458601568748756</v>
       </c>
       <c r="C63">
-        <v>0.001554780051577824</v>
+        <v>0.001705969482031176</v>
       </c>
       <c r="D63">
-        <v>0.03614988515749976</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05882656902517206</v>
+      </c>
+      <c r="E63">
+        <v>0.02227569865068932</v>
+      </c>
+      <c r="F63">
+        <v>0.004413950640465133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09733970197995799</v>
+        <v>0.109628017751124</v>
       </c>
       <c r="C64">
-        <v>-0.0009984189118589354</v>
+        <v>0.01085188673132584</v>
       </c>
       <c r="D64">
-        <v>0.007794795530403866</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04452362178347425</v>
+      </c>
+      <c r="E64">
+        <v>0.02415075975174371</v>
+      </c>
+      <c r="F64">
+        <v>0.02450080777540359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1296947687924011</v>
+        <v>0.1496858085139331</v>
       </c>
       <c r="C65">
-        <v>-0.01220527173895153</v>
+        <v>0.0332539277753676</v>
       </c>
       <c r="D65">
-        <v>-0.02652060695487953</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04240193834406045</v>
+      </c>
+      <c r="E65">
+        <v>0.005868813351829588</v>
+      </c>
+      <c r="F65">
+        <v>0.0395031092658711</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1595042678813227</v>
+        <v>0.123950887065511</v>
       </c>
       <c r="C66">
-        <v>0.004532265433158982</v>
+        <v>0.0134280053578871</v>
       </c>
       <c r="D66">
-        <v>0.1158484980857569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1431689281406069</v>
+      </c>
+      <c r="E66">
+        <v>0.0654956676463662</v>
+      </c>
+      <c r="F66">
+        <v>0.03327986201886752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06824975304123083</v>
+        <v>0.05893618998742037</v>
       </c>
       <c r="C67">
-        <v>0.004867524975043437</v>
+        <v>0.002999891642905045</v>
       </c>
       <c r="D67">
-        <v>0.02112387274838403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05601531371381864</v>
+      </c>
+      <c r="E67">
+        <v>0.01670174295269202</v>
+      </c>
+      <c r="F67">
+        <v>-0.03146770120391177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08328078320706785</v>
+        <v>0.1160919409511786</v>
       </c>
       <c r="C68">
-        <v>-0.004305285355249325</v>
+        <v>0.03210947309542438</v>
       </c>
       <c r="D68">
-        <v>-0.2315283203389416</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2598722325734911</v>
+      </c>
+      <c r="E68">
+        <v>-0.0870564911565069</v>
+      </c>
+      <c r="F68">
+        <v>0.006037127207532023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03507191022862864</v>
+        <v>0.03961765648635841</v>
       </c>
       <c r="C69">
-        <v>0.003474155765889176</v>
+        <v>0.00120211037051967</v>
       </c>
       <c r="D69">
-        <v>-0.005178578921042883</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007822686450499317</v>
+      </c>
+      <c r="E69">
+        <v>0.02195539611215222</v>
+      </c>
+      <c r="F69">
+        <v>0.001504139439037218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03289704604694971</v>
+        <v>0.06652398986789027</v>
       </c>
       <c r="C70">
-        <v>0.02664277930979274</v>
+        <v>-0.02774090905726563</v>
       </c>
       <c r="D70">
-        <v>-0.03696954429837286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02377132171221596</v>
+      </c>
+      <c r="E70">
+        <v>-0.03649384747342833</v>
+      </c>
+      <c r="F70">
+        <v>-0.185063587886558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09917593659815206</v>
+        <v>0.1361571140171049</v>
       </c>
       <c r="C71">
-        <v>-0.005901549729250205</v>
+        <v>0.03645337204162484</v>
       </c>
       <c r="D71">
-        <v>-0.2500536619743702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2720331119435263</v>
+      </c>
+      <c r="E71">
+        <v>-0.09730589064196116</v>
+      </c>
+      <c r="F71">
+        <v>0.01097535548117798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.135668456957236</v>
+        <v>0.1425470331958177</v>
       </c>
       <c r="C72">
-        <v>-0.004605822750545743</v>
+        <v>0.02648264456139158</v>
       </c>
       <c r="D72">
-        <v>-0.0251274477972904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001847934476366157</v>
+      </c>
+      <c r="E72">
+        <v>0.03903302845427519</v>
+      </c>
+      <c r="F72">
+        <v>0.03220866490325064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.204525426800167</v>
+        <v>0.2022443884949112</v>
       </c>
       <c r="C73">
-        <v>0.02002648566063481</v>
+        <v>0.01241820710480981</v>
       </c>
       <c r="D73">
-        <v>-0.01614111831260895</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01677756314204771</v>
+      </c>
+      <c r="E73">
+        <v>0.06389733443927685</v>
+      </c>
+      <c r="F73">
+        <v>0.03414027439980906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1027125298789002</v>
+        <v>0.09482892481144094</v>
       </c>
       <c r="C74">
-        <v>0.004483656834607185</v>
+        <v>0.01333090821259014</v>
       </c>
       <c r="D74">
-        <v>0.004196063981744495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01689238179156394</v>
+      </c>
+      <c r="E74">
+        <v>0.04412310615768721</v>
+      </c>
+      <c r="F74">
+        <v>0.05723031101255041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1362595174898073</v>
+        <v>0.127612791754089</v>
       </c>
       <c r="C75">
-        <v>-0.006284057257036947</v>
+        <v>0.02798678406159164</v>
       </c>
       <c r="D75">
-        <v>0.004097714379957884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03041347915034755</v>
+      </c>
+      <c r="E75">
+        <v>0.05756894548592004</v>
+      </c>
+      <c r="F75">
+        <v>0.02096278380658461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08581243942577543</v>
+        <v>0.08802152210111028</v>
       </c>
       <c r="C77">
-        <v>-0.002271881949363089</v>
+        <v>0.00807987042931157</v>
       </c>
       <c r="D77">
-        <v>0.07900033309280469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1125937459681622</v>
+      </c>
+      <c r="E77">
+        <v>0.0404465246673046</v>
+      </c>
+      <c r="F77">
+        <v>0.03261634506356578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1386437488281599</v>
+        <v>0.1009568896805564</v>
       </c>
       <c r="C78">
-        <v>-0.02508126786774975</v>
+        <v>0.03951620971524028</v>
       </c>
       <c r="D78">
-        <v>0.03488304340147252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1152588851793012</v>
+      </c>
+      <c r="E78">
+        <v>0.07401249488862964</v>
+      </c>
+      <c r="F78">
+        <v>0.04704566941017314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1572751596249537</v>
+        <v>0.1637689659814768</v>
       </c>
       <c r="C79">
-        <v>0.001736919738328443</v>
+        <v>0.02258734692071934</v>
       </c>
       <c r="D79">
-        <v>-0.01543612310433034</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01422320061286852</v>
+      </c>
+      <c r="E79">
+        <v>0.0450554509522647</v>
+      </c>
+      <c r="F79">
+        <v>0.0102988041134703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08803639080161424</v>
+        <v>0.08252388213872737</v>
       </c>
       <c r="C80">
-        <v>0.01193261429557362</v>
+        <v>-0.00110281633231911</v>
       </c>
       <c r="D80">
-        <v>0.0341740599982884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05663748189473135</v>
+      </c>
+      <c r="E80">
+        <v>0.03622039882478098</v>
+      </c>
+      <c r="F80">
+        <v>-0.02317875108992745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1268340331029011</v>
+        <v>0.1201168075144944</v>
       </c>
       <c r="C81">
-        <v>-0.01182489534911138</v>
+        <v>0.03189594747949928</v>
       </c>
       <c r="D81">
-        <v>0.009504608588930362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01501189071551906</v>
+      </c>
+      <c r="E81">
+        <v>0.05584657148622153</v>
+      </c>
+      <c r="F81">
+        <v>0.01777122136144599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1723923928295179</v>
+        <v>0.1661586549778257</v>
       </c>
       <c r="C82">
-        <v>0.004844623857242713</v>
+        <v>0.02459754518195049</v>
       </c>
       <c r="D82">
-        <v>0.004881591252167212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003634888549742291</v>
+      </c>
+      <c r="E82">
+        <v>0.02842253950788194</v>
+      </c>
+      <c r="F82">
+        <v>0.08084091097952406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06632709571098377</v>
+        <v>0.0592526489736865</v>
       </c>
       <c r="C83">
-        <v>0.003621761370795719</v>
+        <v>0.002633112118484025</v>
       </c>
       <c r="D83">
-        <v>0.03176006547321339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05145180354647919</v>
+      </c>
+      <c r="E83">
+        <v>0.004617051643943362</v>
+      </c>
+      <c r="F83">
+        <v>-0.0299834723339391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07395234609366307</v>
+        <v>0.05846327932947982</v>
       </c>
       <c r="C84">
-        <v>-0.003663609995678344</v>
+        <v>0.01100763400514382</v>
       </c>
       <c r="D84">
-        <v>0.03921440868031154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0638670925617657</v>
+      </c>
+      <c r="E84">
+        <v>0.005819990731863901</v>
+      </c>
+      <c r="F84">
+        <v>0.005262363627023854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1352129023527397</v>
+        <v>0.135963943707961</v>
       </c>
       <c r="C85">
-        <v>-0.006117854598848505</v>
+        <v>0.02784689854282612</v>
       </c>
       <c r="D85">
-        <v>-0.001876230211083305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009900722624599539</v>
+      </c>
+      <c r="E85">
+        <v>0.0365792969755683</v>
+      </c>
+      <c r="F85">
+        <v>0.04640318000598102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08176058554272242</v>
+        <v>0.09507926064438925</v>
       </c>
       <c r="C86">
-        <v>0.00925545089848903</v>
+        <v>-0.005203380775545639</v>
       </c>
       <c r="D86">
-        <v>-0.1068347618629002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04060129348285302</v>
+      </c>
+      <c r="E86">
+        <v>0.2165232592194486</v>
+      </c>
+      <c r="F86">
+        <v>-0.9084144414107428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1302497561133491</v>
+        <v>0.095719229489949</v>
       </c>
       <c r="C87">
-        <v>-0.006362297071495493</v>
+        <v>0.01947810832413846</v>
       </c>
       <c r="D87">
-        <v>0.06352700790834764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09493611861294143</v>
+      </c>
+      <c r="E87">
+        <v>-0.05318396245097817</v>
+      </c>
+      <c r="F87">
+        <v>0.0501737983918613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05547315710813603</v>
+        <v>0.0608197156733305</v>
       </c>
       <c r="C88">
-        <v>0.002024396083487084</v>
+        <v>0.002139955488086506</v>
       </c>
       <c r="D88">
-        <v>0.01916986445503471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04936277675670643</v>
+      </c>
+      <c r="E88">
+        <v>0.02401746660338544</v>
+      </c>
+      <c r="F88">
+        <v>0.01293521687940084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1111457791140485</v>
+        <v>0.1319378145135643</v>
       </c>
       <c r="C89">
-        <v>0.01870059435596415</v>
+        <v>0.01312239060184075</v>
       </c>
       <c r="D89">
-        <v>-0.2671206954624297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2467064787918169</v>
+      </c>
+      <c r="E89">
+        <v>-0.09025137545175395</v>
+      </c>
+      <c r="F89">
+        <v>-0.007410053333314649</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1077634642013487</v>
+        <v>0.1513843313528116</v>
       </c>
       <c r="C90">
-        <v>-0.002779222317731475</v>
+        <v>0.03325261174773782</v>
       </c>
       <c r="D90">
-        <v>-0.251915618161498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2706254739067243</v>
+      </c>
+      <c r="E90">
+        <v>-0.1136014031126635</v>
+      </c>
+      <c r="F90">
+        <v>-0.005792321562101969</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1151049956281545</v>
+        <v>0.1207232683441332</v>
       </c>
       <c r="C91">
-        <v>0.001413144946010341</v>
+        <v>0.01937918948263869</v>
       </c>
       <c r="D91">
-        <v>-0.03461883983799983</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01461600364161563</v>
+      </c>
+      <c r="E91">
+        <v>0.05578449176535184</v>
+      </c>
+      <c r="F91">
+        <v>-0.002080939386465228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1135606085513056</v>
+        <v>0.1478653723836726</v>
       </c>
       <c r="C92">
-        <v>0.01332318200485596</v>
+        <v>0.0242281280580496</v>
       </c>
       <c r="D92">
-        <v>-0.2723717242473655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2915119535086458</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025496538128328</v>
+      </c>
+      <c r="F92">
+        <v>-0.01190624117495449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1147420590665151</v>
+        <v>0.1518152283422138</v>
       </c>
       <c r="C93">
-        <v>0.003641008895917127</v>
+        <v>0.02847099257385719</v>
       </c>
       <c r="D93">
-        <v>-0.2608742948673287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2678539666113666</v>
+      </c>
+      <c r="E93">
+        <v>-0.07874908654177326</v>
+      </c>
+      <c r="F93">
+        <v>0.004159920421342789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1429585641473965</v>
+        <v>0.1293641211449256</v>
       </c>
       <c r="C94">
-        <v>-0.001645770330180375</v>
+        <v>0.02464538531139141</v>
       </c>
       <c r="D94">
-        <v>0.02180719195270335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04280179153623734</v>
+      </c>
+      <c r="E94">
+        <v>0.05694694364514481</v>
+      </c>
+      <c r="F94">
+        <v>0.03716746169455307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1232259553250488</v>
+        <v>0.1269879260419335</v>
       </c>
       <c r="C95">
-        <v>0.007977480188898548</v>
+        <v>0.003319173822070718</v>
       </c>
       <c r="D95">
-        <v>0.05210778351907883</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09378389461912105</v>
+      </c>
+      <c r="E95">
+        <v>0.04673661116181996</v>
+      </c>
+      <c r="F95">
+        <v>-0.006124951893223915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.04983421406205981</v>
+        <v>0.1072211446744117</v>
       </c>
       <c r="C96">
-        <v>0.9935221973198179</v>
+        <v>-0.9873110547406487</v>
       </c>
       <c r="D96">
-        <v>-0.01947453697509647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05006321775844539</v>
+      </c>
+      <c r="E96">
+        <v>0.05482060133341636</v>
+      </c>
+      <c r="F96">
+        <v>0.04146528564714987</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1736416168251376</v>
+        <v>0.1932615393773123</v>
       </c>
       <c r="C97">
-        <v>0.03419303833734971</v>
+        <v>-0.007297129146616226</v>
       </c>
       <c r="D97">
-        <v>-0.04816142307928222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01804588018260169</v>
+      </c>
+      <c r="E97">
+        <v>0.02041569723894042</v>
+      </c>
+      <c r="F97">
+        <v>-0.07953933670689561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2040672865159593</v>
+        <v>0.2058510607848454</v>
       </c>
       <c r="C98">
-        <v>0.02425180683472146</v>
+        <v>0.007117742016226074</v>
       </c>
       <c r="D98">
-        <v>-0.003534785707494523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01278588394592479</v>
+      </c>
+      <c r="E98">
+        <v>-0.08244492769953053</v>
+      </c>
+      <c r="F98">
+        <v>-0.09452293427258525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05494346831837729</v>
+        <v>0.05491791843909197</v>
       </c>
       <c r="C99">
-        <v>0.01103810398939199</v>
+        <v>-0.004723992650718051</v>
       </c>
       <c r="D99">
-        <v>0.01361557784759485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03964178274283325</v>
+      </c>
+      <c r="E99">
+        <v>0.02259223752653551</v>
+      </c>
+      <c r="F99">
+        <v>0.001191131302330512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1604480326022742</v>
+        <v>0.1248073712374965</v>
       </c>
       <c r="C100">
-        <v>0.05673064442257902</v>
+        <v>-0.05493786394033818</v>
       </c>
       <c r="D100">
-        <v>0.5740081082739875</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.345329686499281</v>
+      </c>
+      <c r="E100">
+        <v>-0.8883379811547648</v>
+      </c>
+      <c r="F100">
+        <v>-0.1458090004696074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02363112813434989</v>
+        <v>0.0286572132473023</v>
       </c>
       <c r="C101">
-        <v>-0.006616283534700253</v>
+        <v>0.008841753596178427</v>
       </c>
       <c r="D101">
-        <v>0.01317956489970542</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03054515611605676</v>
+      </c>
+      <c r="E101">
+        <v>0.01070116038759261</v>
+      </c>
+      <c r="F101">
+        <v>-0.01441025357311318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
